--- a/medicine/Enfance/Lilas_Nord/Lilas_Nord.xlsx
+++ b/medicine/Enfance/Lilas_Nord/Lilas_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilas Nord est une écrivaine française née en 1975. Elle est l'auteure de livres pour la jeunesse.
 </t>
@@ -513,18 +525,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fictions
-Série Filles de foot : Le Tournoi impossible et Esprit d’équipe (2019), Mauvaises Joueuses et Insupportables Supporters 2020), Hatier.
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Série Filles de foot : Le Tournoi impossible et Esprit d’équipe (2019), Mauvaises Joueuses et Insupportables Supporters 2020), Hatier.
 Désastre au poney club (2019), Larousse.
 Avec Susie Morgenstern : La Famille Trop d’filles, Mon livre d’amitié (2017), Nathan.
 Vie de papier (2007), collection « La maîtresse en maillot de bain », Après la Lune.
 Mais qui a volé le maillot de la maîtresse en maillot de bain ? (2007), collection « Z’ALBOUM ! », Après la Lune Jeunesse.
 Bons baisers de La Galette-les-Bains (2007), Après la Lune Jeunesse, collection « Des vacances toute l’année ».
-Série Poivre et Sel, collection « Petits Polars », Actes Sud Junior : Paris-Brest (2001), Le Château des Quatre-Vents (2001), Terminus, tout le monde descend (2002)
-Fiction-document
-Les Deux côtés du non (2013), Association Cardan, collection Leitura Furiosa.
-Traductions
-De l'anglais vers le français
+Série Poivre et Sel, collection « Petits Polars », Actes Sud Junior : Paris-Brest (2001), Le Château des Quatre-Vents (2001), Terminus, tout le monde descend (2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lilas_Nord</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lilas_Nord</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fiction-document</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Deux côtés du non (2013), Association Cardan, collection Leitura Furiosa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lilas_Nord</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lilas_Nord</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De l'anglais vers le français
 Le Jour où j’ai adopté un trou noir (2020), de Michelle Cuevas, Nathan.
 Winterwood, La Forêt des âmes perdues (2020), de Shea Ernshaw, Rageot.
 The Wicked Deep, La Malédiction des Swans Sisters (2019), de Shea Ernshaw, Rageot.
